--- a/biology/Zoologie/Acronicta_leporina/Acronicta_leporina.xlsx
+++ b/biology/Zoologie/Acronicta_leporina/Acronicta_leporina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Noctuelle-Lièvre (Acronicta leporina) est une espèce de lépidoptères (papillons) européens de la famille des Noctuidae et du genre Acronicta. 
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vulgaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En français : la Noctuelle-Lièvre[1],[2], l'Acronycte du peuplier[réf. souhaitée].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En français : la Noctuelle-Lièvre l'Acronycte du peuplier[réf. souhaitée].
 En anglais : miller.</t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,10 +584,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acronicta leporina est présente dans le centre et le Nord de l'Europe[3].
-Elle est répandue en France métropolitaine, à l'exception des zones de climat méditerranéen[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acronicta leporina est présente dans le centre et le Nord de l'Europe.
+Elle est répandue en France métropolitaine, à l'exception des zones de climat méditerranéen. 
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit sur les bouleaux, les aulnes, voire sur les saules ou les peupliers[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit sur les bouleaux, les aulnes, voire sur les saules ou les peupliers.
 </t>
         </is>
       </c>
@@ -631,12 +651,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce actuellement appelée Acronicta leporina a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena leporina[3].
-Synonymie
-Phalaena leporina Linnaeus, 1758
-Noctua bradyporina Hübner, [1813]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Acronicta leporina a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena leporina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acronicta_leporina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acronicta_leporina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phalaena leporina Linnaeus, 1758
+Noctua bradyporina Hübner, 
 Acronicta leporina var. bimacula Maassen, 1871
 Apatela sancta H. Edwards, 1888
 Acronycta leporina var. leporella Staudinger, 1888
